--- a/data/trans_bre/CONS_PSI-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_PSI-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>7,74</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>72,74%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>-2,11%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>103,24%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>78,13%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>15,41%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 8,08</t>
+          <t>-2,54; 2,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 12,3</t>
+          <t>-4,39; 3,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 4,68</t>
+          <t>1,47; 8,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,97</t>
+          <t>3,51; 12,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 164,78</t>
+          <t>-26,46; 42,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,47; 152,53</t>
+          <t>-36,27; 44,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 67,17</t>
+          <t>22,64; 243,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 44,62</t>
+          <t>28,16; 153,62</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>5,65</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,53</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>74,6%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35,2%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>34,8%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>91,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>50,0%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 8,44</t>
+          <t>-0,73; 6,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 11,73</t>
+          <t>1,56; 10,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 9,75</t>
+          <t>-1,79; 7,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 7,69</t>
+          <t>-0,53; 11,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 132,12</t>
+          <t>-9,08; 96,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 94,46</t>
+          <t>11,32; 176,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,59; 188,24</t>
+          <t>-16,78; 122,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 117,19</t>
+          <t>-3,72; 89,85</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,54</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>19,2</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14,06</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>19,86</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,68</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,77</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>196,72%</t>
+          <t>71,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>328,58%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>214,43%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>111,16%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>120,19%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>80,34%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 20,57</t>
+          <t>3,0; 12,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 32,12</t>
+          <t>10,93; 30,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 17,77</t>
+          <t>6,93; 21,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 12,06</t>
+          <t>7,33; 32,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>74,35; 412,77</t>
+          <t>24,17; 136,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,94; 242,04</t>
+          <t>83,49; 1525,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,74; 231,52</t>
+          <t>82,42; 482,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,35; 137,31</t>
+          <t>28,04; 235,86</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,24</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>15,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>118,41%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>48,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>118,7%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 9,09</t>
+          <t>1,66; 8,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 22,8</t>
+          <t>-6,35; 7,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,05</t>
+          <t>0,73; 8,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 8,54</t>
+          <t>7,93; 22,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 107,18</t>
+          <t>13,03; 79,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,79; 227,73</t>
+          <t>-59,24; 86,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 78,35</t>
+          <t>4,89; 113,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 82,47</t>
+          <t>47,82; 216,93</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,41</t>
+          <t>11,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>14,13</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,63</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>19,6</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>14,09</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,84</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>134,16%</t>
+          <t>116,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>171,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>155,88%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>254,85%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>124,21%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>129,75%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 16,88</t>
+          <t>6,68; 14,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,58; 29,18</t>
+          <t>3,08; 20,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,98; 18,33</t>
+          <t>6,31; 17,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 15,73</t>
+          <t>9,29; 29,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>41,4; 258,48</t>
+          <t>51,85; 204,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,43; 689,89</t>
+          <t>43,69; 353,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>71,2; 200,05</t>
+          <t>60,46; 308,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,78; 220,44</t>
+          <t>60,29; 709,23</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>21,46</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,65</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,38</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-9,69%</t>
+          <t>1460,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>251,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>284,44%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>862,14%</t>
+          <t>39,55%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 22,69</t>
+          <t>17,75; 25,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 16,43</t>
+          <t>6,06; 18,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 18,28</t>
+          <t>-15,77; 38,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,18; 21,36</t>
+          <t>-8,87; 17,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>537,42; 5204,9</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>36,02; 821,6</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>-100,0; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-39,93; 204,27</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>77,04; 668,35</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>413,97; 1865,92</t>
+          <t>-39,94; 200,05</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,8</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>74,49%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>83,59%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>83,4%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,29</t>
+          <t>5,15; 8,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,57; 14,11</t>
+          <t>3,3; 11,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,19</t>
+          <t>4,2; 8,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,7</t>
+          <t>7,92; 13,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,36; 109,53</t>
+          <t>50,02; 95,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,08; 123,56</t>
+          <t>41,62; 186,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>68,09; 122,83</t>
+          <t>48,99; 123,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>61,16; 103,33</t>
+          <t>54,75; 120,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_PSI-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_PSI-Clase-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,92</t>
+          <t>-1,6; 4,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 3,4</t>
+          <t>-4,53; 3,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 12,3</t>
+          <t>3,4; 12,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 42,21</t>
+          <t>-17,88; 66,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 44,34</t>
+          <t>-37,28; 51,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,16; 153,62</t>
+          <t>28,87; 149,53</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>49,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 6,99</t>
+          <t>0,25; 7,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 10,1</t>
+          <t>1,15; 9,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 11,69</t>
+          <t>-0,43; 11,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 96,68</t>
+          <t>2,26; 127,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 176,06</t>
+          <t>10,77; 169,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 89,85</t>
+          <t>-2,83; 93,87</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 12,58</t>
+          <t>4,77; 14,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,93; 30,97</t>
+          <t>11,23; 31,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 32,11</t>
+          <t>7,22; 32,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,17; 136,8</t>
+          <t>43,62; 164,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,49; 1525,48</t>
+          <t>82,67; 1755,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,04; 235,86</t>
+          <t>27,45; 239,01</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 8,06</t>
+          <t>0,06; 6,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 7,9</t>
+          <t>-6,52; 8,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 22,29</t>
+          <t>8,49; 22,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,03; 79,97</t>
+          <t>0,53; 60,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,24; 86,76</t>
+          <t>-56,42; 86,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,82; 216,93</t>
+          <t>52,55; 228,89</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,1</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>116,72%</t>
+          <t>123,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,68; 14,93</t>
+          <t>7,08; 15,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 20,44</t>
+          <t>2,54; 20,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,29; 29,49</t>
+          <t>10,85; 29,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,85; 204,4</t>
+          <t>58,5; 213,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,69; 353,52</t>
+          <t>25,28; 332,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,29; 709,23</t>
+          <t>74,99; 720,29</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,46</t>
+          <t>18,24</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1460,79%</t>
+          <t>999,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,75; 25,12</t>
+          <t>14,73; 21,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,06; 18,88</t>
+          <t>5,76; 18,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 17,51</t>
+          <t>-9,13; 18,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>537,42; 5204,9</t>
+          <t>320,89; 3617,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,02; 821,6</t>
+          <t>38,1; 748,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,94; 200,05</t>
+          <t>-40,88; 230,45</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>71,76%</t>
+          <t>71,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,15; 8,29</t>
+          <t>5,05; 7,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 11,14</t>
+          <t>3,37; 10,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,92; 13,94</t>
+          <t>7,78; 13,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,02; 95,39</t>
+          <t>50,9; 95,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,62; 186,19</t>
+          <t>44,57; 175,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>54,75; 120,91</t>
+          <t>54,04; 123,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_PSI-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_PSI-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7,74</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>1,28</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,98</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,74</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>78,13%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>103,24%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>16,6%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-2,11%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>103,24%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>78,13%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,74; 4,43</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 12,15</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 8,62</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-1,6; 4,28</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,53; 3,83</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 8,62</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 12,15</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-33,1; 63,05</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28,87; 149,53</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>22,64; 243,03</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-17,88; 66,11</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-37,28; 51,0</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>22,64; 243,03</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>28,87; 149,53</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,72</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,53</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>4,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,53</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>77,55%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>34,8%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35,2%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>49,13%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>74,6%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>35,2%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>34,8%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,19; 9,63</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 11,63</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 7,35</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,25; 7,71</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 9,7</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; 7,35</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,43; 11,63</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>11,54; 172,18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 93,87</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-16,78; 122,88</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>2,26; 127,39</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>10,77; 169,23</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-16,78; 122,88</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 93,87</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>12,85</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19,86</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14,06</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>9,43</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>19,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>14,06</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>19,86</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>110,61%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>111,16%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>214,43%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>96,95%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>328,58%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>214,43%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>111,16%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>4,36; 20,26</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7,22; 32,09</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6,93; 21,65</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>4,77; 14,35</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>11,23; 31,91</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6,93; 21,65</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>7,22; 32,09</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>29,77; 218,99</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27,45; 239,01</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>82,42; 482,33</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>43,62; 164,42</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>82,67; 1755,75</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>82,42; 482,33</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>27,45; 239,01</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,48</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,28</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,58</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,37</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>15,28</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>66,03%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>118,7%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48,22%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>27,29%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>16,08%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>48,22%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>118,7%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,98; 10,39</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8,49; 22,95</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 8,41</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0,06; 6,48</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,52; 8,01</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 8,41</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>8,49; 22,95</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>24,94; 124,56</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52,55; 228,89</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 113,13</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>0,53; 60,3</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-56,42; 86,68</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4,89; 113,13</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>52,55; 228,89</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>16,68</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19,6</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,63</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>11,42</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>14,13</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>11,63</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>19,6</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>208,07%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>254,85%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>155,88%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>123,89%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>171,21%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>155,88%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>254,85%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>11,62; 21,41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10,85; 29,44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 17,73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>7,08; 15,47</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 20,23</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 17,73</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>10,85; 29,44</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>97,64; 407,85</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>74,99; 720,29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>60,46; 308,73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>58,5; 213,54</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>25,28; 332,62</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>60,46; 308,73</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>74,99; 720,29</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>13,9</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6,15</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8,16</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>18,24</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>14,1</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,16</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,15</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>255,96%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>39,55%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>61,71%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>999,44%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>251,54%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>61,71%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>39,55%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>6,36; 18,19</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 18,61</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-15,77; 38,24</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>14,73; 21,48</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 18,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-15,77; 38,24</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-9,13; 18,61</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>47,05; 797,78</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-40,88; 230,45</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>320,89; 3617,92</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>38,1; 748,54</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-40,88; 230,45</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>8,69</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10,82</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6,27</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>6,43</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,87</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,27</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>10,82</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>97,28%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>83,4%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>85,41%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>71,44%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>97,51%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>85,41%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>83,4%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,92; 10,67</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7,78; 13,89</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 8,25</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>5,05; 7,9</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>3,37; 10,93</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 8,25</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,78; 13,89</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>69,01; 130,69</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>54,04; 123,56</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>48,99; 123,87</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>50,9; 95,21</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>44,57; 175,58</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>48,99; 123,87</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>54,04; 123,56</t>
         </is>
       </c>
     </row>
